--- a/peertopeer.xlsx
+++ b/peertopeer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUP\ECOPULSE\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA664195-80C0-487E-A61F-6332271B62C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB841FC9-63A4-42EF-A49C-0509F3B09733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="707" yWindow="707" windowWidth="15600" windowHeight="9580" xr2:uid="{7F1E3285-8544-4C42-9346-025A8A19DF7D}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20986" windowHeight="13333" xr2:uid="{7F1E3285-8544-4C42-9346-025A8A19DF7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Year</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Visayas Total Power Consumption (GWh)</t>
+  </si>
+  <si>
+    <t>Solar Cost (PHP/W)</t>
+  </si>
+  <si>
+    <t>MERALCO Rate (PHP/kWh)</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681308E-5448-455D-8EE6-4766F7EAF94B}">
-  <dimension ref="A1:AQ1000"/>
+  <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
+    <sheetView tabSelected="1" topLeftCell="AH2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -543,7 +549,7 @@
     <col min="43" max="43" width="9.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="86" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:45" ht="86" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,8 +679,14 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -804,8 +816,14 @@
       <c r="AQ2" s="6">
         <v>6762.3519999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR2">
+        <v>495</v>
+      </c>
+      <c r="AS2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -935,8 +953,14 @@
       <c r="AQ3" s="6">
         <v>6945.759</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR3">
+        <v>433</v>
+      </c>
+      <c r="AS3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -1066,8 +1090,14 @@
       <c r="AQ4" s="6">
         <v>7381.7629999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR4" s="6">
+        <v>368</v>
+      </c>
+      <c r="AS4" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -1197,8 +1227,14 @@
       <c r="AQ5" s="6">
         <v>7532.4369999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR5" s="6">
+        <v>330</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -1328,8 +1364,14 @@
       <c r="AQ6" s="6">
         <v>8063.9290000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR6" s="6">
+        <v>336</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -1459,8 +1501,14 @@
       <c r="AQ7" s="6">
         <v>9017.9130000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR7" s="6">
+        <v>292</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -1590,8 +1638,14 @@
       <c r="AQ8" s="6">
         <v>9508.3140000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR8" s="6">
+        <v>258</v>
+      </c>
+      <c r="AS8" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -1721,8 +1775,14 @@
       <c r="AQ9" s="6">
         <v>10072.003000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR9" s="6">
+        <v>231</v>
+      </c>
+      <c r="AS9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -1852,8 +1912,14 @@
       <c r="AQ10" s="6">
         <v>10183.325999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR10" s="6">
+        <v>210</v>
+      </c>
+      <c r="AS10" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -1983,8 +2049,14 @@
       <c r="AQ11" s="6">
         <v>10291.666999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR11" s="6">
+        <v>198</v>
+      </c>
+      <c r="AS11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -2114,8 +2186,14 @@
       <c r="AQ12" s="6">
         <v>11184.002</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR12" s="6">
+        <v>188</v>
+      </c>
+      <c r="AS12" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -2245,8 +2323,14 @@
       <c r="AQ13" s="6">
         <v>12231.839</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR13" s="6">
+        <v>168</v>
+      </c>
+      <c r="AS13" s="6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -2376,8 +2460,14 @@
       <c r="AQ14" s="6">
         <v>12941.700999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR14" s="6">
+        <v>150</v>
+      </c>
+      <c r="AS14" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -2507,8 +2597,14 @@
       <c r="AQ15" s="6">
         <v>13491.947</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR15" s="6">
+        <v>132</v>
+      </c>
+      <c r="AS15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -2638,8 +2734,14 @@
       <c r="AQ16" s="6">
         <v>14549.341</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR16" s="6">
+        <v>109</v>
+      </c>
+      <c r="AS16" s="6">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -2769,8 +2871,14 @@
       <c r="AQ17" s="6">
         <v>14399.200999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR17" s="6">
+        <v>85.5</v>
+      </c>
+      <c r="AS17" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -2900,8 +3008,14 @@
       <c r="AQ18" s="6">
         <v>14757.369000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR18" s="6">
+        <v>69.5</v>
+      </c>
+      <c r="AS18" s="6">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -3031,8 +3145,14 @@
       <c r="AQ19" s="6">
         <v>15174.716</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR19" s="6">
+        <v>71.5</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>2023</v>
       </c>
@@ -3162,8 +3282,14 @@
       <c r="AQ20" s="6">
         <v>16701.457999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="AR20" s="6">
+        <v>61.5</v>
+      </c>
+      <c r="AS20" s="6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3205,7 +3331,7 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3247,7 +3373,7 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3289,7 +3415,7 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3331,7 +3457,7 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3373,7 +3499,7 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3415,7 +3541,7 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3457,7 +3583,7 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3499,7 +3625,7 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3541,7 +3667,7 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.5">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/peertopeer.xlsx
+++ b/peertopeer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUP\ECOPULSE\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB841FC9-63A4-42EF-A49C-0509F3B09733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB14F934-0E7F-44F2-BC55-3955FD93C282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20986" windowHeight="13333" xr2:uid="{7F1E3285-8544-4C42-9346-025A8A19DF7D}"/>
   </bookViews>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4681308E-5448-455D-8EE6-4766F7EAF94B}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AR2" sqref="AR2:AS20"/>
     </sheetView>
   </sheetViews>
